--- a/server/data/users.xlsx
+++ b/server/data/users.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="8">
   <si>
-    <t>工号</t>
+    <t>编号</t>
   </si>
   <si>
     <t>姓名</t>
@@ -51,7 +51,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,13 +69,6 @@
       <sz val="12"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -542,148 +535,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1025,7 +1018,7 @@
   <dimension ref="A1:C151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.75" defaultRowHeight="17.6" outlineLevelCol="2"/>

--- a/server/data/users.xlsx
+++ b/server/data/users.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15840"/>
+    <workbookView windowHeight="17560"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="4">
   <si>
     <t>编号</t>
   </si>
@@ -26,18 +26,6 @@
   </si>
   <si>
     <t>天选之人</t>
-  </si>
-  <si>
-    <t>WTA</t>
-  </si>
-  <si>
-    <t>ATP</t>
-  </si>
-  <si>
-    <t>红楼梦</t>
-  </si>
-  <si>
-    <t>MUSIC</t>
   </si>
 </sst>
 </file>
@@ -1018,7 +1006,7 @@
   <dimension ref="A1:C151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.75" defaultRowHeight="17.6" outlineLevelCol="2"/>
@@ -1044,9 +1032,7 @@
       <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="C2" s="4"/>
     </row>
     <row r="3" ht="18" spans="1:3">
       <c r="A3" s="2">
@@ -1055,9 +1041,7 @@
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="C3" s="4"/>
     </row>
     <row r="4" ht="18" spans="1:3">
       <c r="A4" s="2">
@@ -1066,9 +1050,7 @@
       <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="C4" s="4"/>
     </row>
     <row r="5" ht="18" spans="1:3">
       <c r="A5" s="2">
@@ -1077,9 +1059,7 @@
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="C5" s="4"/>
     </row>
     <row r="6" ht="18" spans="1:3">
       <c r="A6" s="2">
@@ -1088,9 +1068,7 @@
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="C6" s="4"/>
     </row>
     <row r="7" ht="18" spans="1:3">
       <c r="A7" s="2">
@@ -1099,9 +1077,7 @@
       <c r="B7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="C7" s="4"/>
     </row>
     <row r="8" ht="18" spans="1:3">
       <c r="A8" s="2">
@@ -1110,9 +1086,7 @@
       <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="C8" s="4"/>
     </row>
     <row r="9" ht="18" spans="1:3">
       <c r="A9" s="2">
@@ -1121,9 +1095,7 @@
       <c r="B9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="C9" s="4"/>
     </row>
     <row r="10" ht="18" spans="1:3">
       <c r="A10" s="2">
@@ -1132,9 +1104,7 @@
       <c r="B10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="C10" s="4"/>
     </row>
     <row r="11" ht="18" spans="1:3">
       <c r="A11" s="2">
@@ -1143,9 +1113,7 @@
       <c r="B11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="C11" s="4"/>
     </row>
     <row r="12" ht="18" spans="1:3">
       <c r="A12" s="2">
@@ -1154,9 +1122,7 @@
       <c r="B12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="C12" s="4"/>
     </row>
     <row r="13" ht="18" spans="1:3">
       <c r="A13" s="2">
@@ -1165,9 +1131,7 @@
       <c r="B13" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="C13" s="4"/>
     </row>
     <row r="14" ht="18" spans="1:3">
       <c r="A14" s="2">
@@ -1176,9 +1140,7 @@
       <c r="B14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="C14" s="4"/>
     </row>
     <row r="15" ht="18" spans="1:3">
       <c r="A15" s="2">
@@ -1187,9 +1149,7 @@
       <c r="B15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="C15" s="4"/>
     </row>
     <row r="16" ht="18" spans="1:3">
       <c r="A16" s="2">
@@ -1198,9 +1158,7 @@
       <c r="B16" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="C16" s="4"/>
     </row>
     <row r="17" ht="18" spans="1:3">
       <c r="A17" s="2">
@@ -1209,9 +1167,7 @@
       <c r="B17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="C17" s="4"/>
     </row>
     <row r="18" ht="18" spans="1:3">
       <c r="A18" s="2">
@@ -1220,9 +1176,7 @@
       <c r="B18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="C18" s="4"/>
     </row>
     <row r="19" ht="18" spans="1:3">
       <c r="A19" s="2">
@@ -1231,9 +1185,7 @@
       <c r="B19" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="C19" s="4"/>
     </row>
     <row r="20" ht="18" spans="1:3">
       <c r="A20" s="2">
@@ -1242,9 +1194,7 @@
       <c r="B20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="C20" s="4"/>
     </row>
     <row r="21" ht="18" spans="1:3">
       <c r="A21" s="2">
@@ -1253,9 +1203,7 @@
       <c r="B21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="C21" s="4"/>
     </row>
     <row r="22" ht="18" spans="1:3">
       <c r="A22" s="2">
@@ -1264,9 +1212,7 @@
       <c r="B22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="C22" s="4"/>
     </row>
     <row r="23" ht="18" spans="1:3">
       <c r="A23" s="2">
@@ -1275,9 +1221,7 @@
       <c r="B23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="C23" s="4"/>
     </row>
     <row r="24" ht="18" spans="1:3">
       <c r="A24" s="2">
@@ -1286,9 +1230,7 @@
       <c r="B24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="C24" s="4"/>
     </row>
     <row r="25" ht="18" spans="1:3">
       <c r="A25" s="2">
@@ -1297,9 +1239,7 @@
       <c r="B25" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="C25" s="4"/>
     </row>
     <row r="26" ht="18" spans="1:3">
       <c r="A26" s="2">
@@ -1308,9 +1248,7 @@
       <c r="B26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="C26" s="4"/>
     </row>
     <row r="27" ht="18" spans="1:3">
       <c r="A27" s="2">
@@ -1319,9 +1257,7 @@
       <c r="B27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="C27" s="4"/>
     </row>
     <row r="28" ht="18" spans="1:3">
       <c r="A28" s="2">
@@ -1330,9 +1266,7 @@
       <c r="B28" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="C28" s="4"/>
     </row>
     <row r="29" ht="18" spans="1:3">
       <c r="A29" s="2">
@@ -1341,9 +1275,7 @@
       <c r="B29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="C29" s="4"/>
     </row>
     <row r="30" ht="18" spans="1:3">
       <c r="A30" s="2">
@@ -1352,9 +1284,7 @@
       <c r="B30" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="C30" s="4"/>
     </row>
     <row r="31" ht="18" spans="1:3">
       <c r="A31" s="2">
@@ -1363,9 +1293,7 @@
       <c r="B31" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="C31" s="4"/>
     </row>
     <row r="32" ht="18" spans="1:3">
       <c r="A32" s="2">
@@ -1374,9 +1302,7 @@
       <c r="B32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="C32" s="4"/>
     </row>
     <row r="33" ht="18" spans="1:3">
       <c r="A33" s="2">
@@ -1385,9 +1311,7 @@
       <c r="B33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="C33" s="4"/>
     </row>
     <row r="34" ht="18" spans="1:3">
       <c r="A34" s="2">
@@ -1396,9 +1320,7 @@
       <c r="B34" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="C34" s="4"/>
     </row>
     <row r="35" ht="18" spans="1:3">
       <c r="A35" s="2">
@@ -1407,9 +1329,7 @@
       <c r="B35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="C35" s="4"/>
     </row>
     <row r="36" ht="18" spans="1:3">
       <c r="A36" s="2">
@@ -1418,9 +1338,7 @@
       <c r="B36" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="C36" s="4"/>
     </row>
     <row r="37" ht="18" spans="1:3">
       <c r="A37" s="2">
@@ -1429,9 +1347,7 @@
       <c r="B37" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="C37" s="4"/>
     </row>
     <row r="38" ht="18" spans="1:3">
       <c r="A38" s="2">
@@ -1440,9 +1356,7 @@
       <c r="B38" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="C38" s="4"/>
     </row>
     <row r="39" ht="18" spans="1:3">
       <c r="A39" s="2">
@@ -1451,9 +1365,7 @@
       <c r="B39" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="C39" s="4"/>
     </row>
     <row r="40" ht="18" spans="1:3">
       <c r="A40" s="2">
@@ -1462,9 +1374,7 @@
       <c r="B40" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C40" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="C40" s="4"/>
     </row>
     <row r="41" ht="18" spans="1:3">
       <c r="A41" s="2">
@@ -1473,9 +1383,7 @@
       <c r="B41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C41" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="C41" s="4"/>
     </row>
     <row r="42" ht="18" spans="1:3">
       <c r="A42" s="2">
@@ -1484,9 +1392,7 @@
       <c r="B42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C42" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="C42" s="4"/>
     </row>
     <row r="43" ht="18" spans="1:3">
       <c r="A43" s="2">
@@ -1495,9 +1401,7 @@
       <c r="B43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="C43" s="4"/>
     </row>
     <row r="44" ht="18" spans="1:3">
       <c r="A44" s="2">
@@ -1506,9 +1410,7 @@
       <c r="B44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C44" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="C44" s="4"/>
     </row>
     <row r="45" ht="18" spans="1:3">
       <c r="A45" s="2">
@@ -1517,9 +1419,7 @@
       <c r="B45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C45" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="C45" s="4"/>
     </row>
     <row r="46" ht="18" spans="1:3">
       <c r="A46" s="2">
@@ -1528,9 +1428,7 @@
       <c r="B46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C46" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="C46" s="4"/>
     </row>
     <row r="47" ht="18" spans="1:3">
       <c r="A47" s="2">
@@ -1539,9 +1437,7 @@
       <c r="B47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C47" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="C47" s="4"/>
     </row>
     <row r="48" ht="18" spans="1:3">
       <c r="A48" s="2">
@@ -1550,9 +1446,7 @@
       <c r="B48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C48" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="C48" s="4"/>
     </row>
     <row r="49" ht="18" spans="1:3">
       <c r="A49" s="2">
@@ -1561,9 +1455,7 @@
       <c r="B49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C49" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="C49" s="4"/>
     </row>
     <row r="50" ht="18" spans="1:3">
       <c r="A50" s="2">
@@ -1572,9 +1464,7 @@
       <c r="B50" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C50" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="C50" s="4"/>
     </row>
     <row r="51" ht="18" spans="1:3">
       <c r="A51" s="2">
@@ -1583,9 +1473,7 @@
       <c r="B51" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C51" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="C51" s="4"/>
     </row>
     <row r="52" ht="18" spans="1:3">
       <c r="A52" s="2">
@@ -1594,9 +1482,7 @@
       <c r="B52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C52" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="C52" s="4"/>
     </row>
     <row r="53" ht="18" spans="1:3">
       <c r="A53" s="2">
@@ -1605,9 +1491,7 @@
       <c r="B53" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C53" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="C53" s="4"/>
     </row>
     <row r="54" ht="18" spans="1:3">
       <c r="A54" s="2">
@@ -1616,9 +1500,7 @@
       <c r="B54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C54" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="C54" s="4"/>
     </row>
     <row r="55" ht="18" spans="1:3">
       <c r="A55" s="2">
@@ -1627,9 +1509,7 @@
       <c r="B55" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C55" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="C55" s="4"/>
     </row>
     <row r="56" ht="18" spans="1:3">
       <c r="A56" s="2">
@@ -1638,9 +1518,7 @@
       <c r="B56" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C56" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="C56" s="4"/>
     </row>
     <row r="57" ht="18" spans="1:3">
       <c r="A57" s="2">
@@ -1649,9 +1527,7 @@
       <c r="B57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C57" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="C57" s="4"/>
     </row>
     <row r="58" ht="18" spans="1:3">
       <c r="A58" s="2">
@@ -1660,9 +1536,7 @@
       <c r="B58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C58" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="C58" s="4"/>
     </row>
     <row r="59" ht="18" spans="1:3">
       <c r="A59" s="2">
@@ -1671,9 +1545,7 @@
       <c r="B59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C59" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="C59" s="4"/>
     </row>
     <row r="60" ht="18" spans="1:3">
       <c r="A60" s="2">
@@ -1682,9 +1554,7 @@
       <c r="B60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C60" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="C60" s="4"/>
     </row>
     <row r="61" ht="18" spans="1:3">
       <c r="A61" s="2">
@@ -1693,9 +1563,7 @@
       <c r="B61" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C61" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="C61" s="4"/>
     </row>
     <row r="62" ht="18" spans="1:3">
       <c r="A62" s="2">
@@ -1704,9 +1572,7 @@
       <c r="B62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C62" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="C62" s="4"/>
     </row>
     <row r="63" ht="18" spans="1:3">
       <c r="A63" s="2">
@@ -1715,9 +1581,7 @@
       <c r="B63" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C63" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="C63" s="4"/>
     </row>
     <row r="64" ht="18" spans="1:3">
       <c r="A64" s="2">
@@ -1726,9 +1590,7 @@
       <c r="B64" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C64" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="C64" s="4"/>
     </row>
     <row r="65" ht="18" spans="1:3">
       <c r="A65" s="2">
@@ -1737,9 +1599,7 @@
       <c r="B65" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C65" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="C65" s="4"/>
     </row>
     <row r="66" ht="18" spans="1:3">
       <c r="A66" s="2">
@@ -1748,9 +1608,7 @@
       <c r="B66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C66" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="C66" s="4"/>
     </row>
     <row r="67" ht="18" spans="1:3">
       <c r="A67" s="2">
@@ -1759,9 +1617,7 @@
       <c r="B67" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C67" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="C67" s="4"/>
     </row>
     <row r="68" ht="18" spans="1:3">
       <c r="A68" s="2">
@@ -1770,9 +1626,7 @@
       <c r="B68" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C68" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="C68" s="4"/>
     </row>
     <row r="69" ht="18" spans="1:3">
       <c r="A69" s="2">
@@ -1781,9 +1635,7 @@
       <c r="B69" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C69" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="C69" s="4"/>
     </row>
     <row r="70" ht="18" spans="1:3">
       <c r="A70" s="2">
@@ -1792,9 +1644,7 @@
       <c r="B70" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C70" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="C70" s="4"/>
     </row>
     <row r="71" ht="18" spans="1:3">
       <c r="A71" s="2">
@@ -1803,9 +1653,7 @@
       <c r="B71" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C71" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="C71" s="4"/>
     </row>
     <row r="72" ht="18" spans="1:3">
       <c r="A72" s="2">
@@ -1814,9 +1662,7 @@
       <c r="B72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C72" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="C72" s="4"/>
     </row>
     <row r="73" ht="18" spans="1:3">
       <c r="A73" s="2">
@@ -1825,9 +1671,7 @@
       <c r="B73" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C73" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="C73" s="4"/>
     </row>
     <row r="74" ht="18" spans="1:3">
       <c r="A74" s="2">
@@ -1836,9 +1680,7 @@
       <c r="B74" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C74" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="C74" s="4"/>
     </row>
     <row r="75" ht="18" spans="1:3">
       <c r="A75" s="2">
@@ -1847,9 +1689,7 @@
       <c r="B75" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C75" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="C75" s="4"/>
     </row>
     <row r="76" ht="18" spans="1:3">
       <c r="A76" s="2">
@@ -1858,9 +1698,7 @@
       <c r="B76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C76" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="C76" s="4"/>
     </row>
     <row r="77" ht="18" spans="1:3">
       <c r="A77" s="2">
@@ -1869,9 +1707,7 @@
       <c r="B77" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C77" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="C77" s="4"/>
     </row>
     <row r="78" ht="18" spans="1:3">
       <c r="A78" s="2">
@@ -1880,9 +1716,7 @@
       <c r="B78" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C78" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="C78" s="4"/>
     </row>
     <row r="79" ht="18" spans="1:3">
       <c r="A79" s="2">
@@ -1891,9 +1725,7 @@
       <c r="B79" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C79" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="C79" s="4"/>
     </row>
     <row r="80" ht="18" spans="1:3">
       <c r="A80" s="2">
@@ -1902,9 +1734,7 @@
       <c r="B80" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C80" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="C80" s="4"/>
     </row>
     <row r="81" ht="18" spans="1:3">
       <c r="A81" s="2">
@@ -1913,9 +1743,7 @@
       <c r="B81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C81" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="C81" s="4"/>
     </row>
     <row r="82" ht="18" spans="1:3">
       <c r="A82" s="2">
@@ -1924,9 +1752,7 @@
       <c r="B82" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C82" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="C82" s="4"/>
     </row>
     <row r="83" ht="18" spans="1:3">
       <c r="A83" s="2">
@@ -1935,9 +1761,7 @@
       <c r="B83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C83" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="C83" s="4"/>
     </row>
     <row r="84" ht="18" spans="1:3">
       <c r="A84" s="2">
@@ -1946,9 +1770,7 @@
       <c r="B84" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C84" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="C84" s="4"/>
     </row>
     <row r="85" ht="18" spans="1:3">
       <c r="A85" s="2">
@@ -1957,9 +1779,7 @@
       <c r="B85" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C85" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="C85" s="4"/>
     </row>
     <row r="86" ht="18" spans="1:3">
       <c r="A86" s="2">
@@ -1968,9 +1788,7 @@
       <c r="B86" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C86" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="C86" s="4"/>
     </row>
     <row r="87" ht="18" spans="1:3">
       <c r="A87" s="2">
@@ -1979,9 +1797,7 @@
       <c r="B87" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C87" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="C87" s="4"/>
     </row>
     <row r="88" ht="18" spans="1:3">
       <c r="A88" s="2">
@@ -1990,9 +1806,7 @@
       <c r="B88" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C88" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="C88" s="4"/>
     </row>
     <row r="89" ht="18" spans="1:3">
       <c r="A89" s="2">
@@ -2001,9 +1815,7 @@
       <c r="B89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C89" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="C89" s="4"/>
     </row>
     <row r="90" ht="18" spans="1:3">
       <c r="A90" s="2">
@@ -2012,9 +1824,7 @@
       <c r="B90" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C90" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="C90" s="4"/>
     </row>
     <row r="91" ht="18" spans="1:3">
       <c r="A91" s="2">
@@ -2023,9 +1833,7 @@
       <c r="B91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C91" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="C91" s="4"/>
     </row>
     <row r="92" ht="18" spans="1:3">
       <c r="A92" s="2">
@@ -2034,9 +1842,7 @@
       <c r="B92" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C92" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="C92" s="4"/>
     </row>
     <row r="93" ht="18" spans="1:3">
       <c r="A93" s="2">
@@ -2045,9 +1851,7 @@
       <c r="B93" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C93" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="C93" s="4"/>
     </row>
     <row r="94" ht="18" spans="1:3">
       <c r="A94" s="2">
@@ -2056,9 +1860,7 @@
       <c r="B94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C94" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="C94" s="4"/>
     </row>
     <row r="95" ht="18" spans="1:3">
       <c r="A95" s="2">
@@ -2067,9 +1869,7 @@
       <c r="B95" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C95" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="C95" s="4"/>
     </row>
     <row r="96" ht="18" spans="1:3">
       <c r="A96" s="2">
@@ -2078,9 +1878,7 @@
       <c r="B96" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C96" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="C96" s="4"/>
     </row>
     <row r="97" ht="18" spans="1:3">
       <c r="A97" s="2">
@@ -2089,9 +1887,7 @@
       <c r="B97" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C97" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="C97" s="4"/>
     </row>
     <row r="98" ht="18" spans="1:3">
       <c r="A98" s="2">
@@ -2100,9 +1896,7 @@
       <c r="B98" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C98" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="C98" s="4"/>
     </row>
     <row r="99" ht="18" spans="1:3">
       <c r="A99" s="2">
@@ -2111,9 +1905,7 @@
       <c r="B99" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C99" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="C99" s="4"/>
     </row>
     <row r="100" ht="18" spans="1:3">
       <c r="A100" s="2">
@@ -2122,9 +1914,7 @@
       <c r="B100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C100" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="C100" s="4"/>
     </row>
     <row r="101" ht="18" spans="1:3">
       <c r="A101" s="2">
@@ -2133,9 +1923,7 @@
       <c r="B101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C101" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="C101" s="4"/>
     </row>
     <row r="102" ht="18" spans="1:3">
       <c r="A102" s="2">
@@ -2144,9 +1932,7 @@
       <c r="B102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C102" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="C102" s="4"/>
     </row>
     <row r="103" ht="18" spans="1:3">
       <c r="A103" s="2">
@@ -2155,9 +1941,7 @@
       <c r="B103" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C103" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="C103" s="4"/>
     </row>
     <row r="104" ht="18" spans="1:3">
       <c r="A104" s="2">
@@ -2166,9 +1950,7 @@
       <c r="B104" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C104" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="C104" s="4"/>
     </row>
     <row r="105" ht="18" spans="1:3">
       <c r="A105" s="2">
@@ -2177,9 +1959,7 @@
       <c r="B105" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C105" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="C105" s="4"/>
     </row>
     <row r="106" ht="18" spans="1:3">
       <c r="A106" s="2">
@@ -2188,9 +1968,7 @@
       <c r="B106" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C106" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="C106" s="4"/>
     </row>
     <row r="107" ht="18" spans="1:3">
       <c r="A107" s="2">
@@ -2199,9 +1977,7 @@
       <c r="B107" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C107" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="C107" s="4"/>
     </row>
     <row r="108" ht="18" spans="1:3">
       <c r="A108" s="2">
@@ -2210,9 +1986,7 @@
       <c r="B108" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C108" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="C108" s="4"/>
     </row>
     <row r="109" ht="18" spans="1:3">
       <c r="A109" s="2">
@@ -2221,9 +1995,7 @@
       <c r="B109" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C109" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="C109" s="4"/>
     </row>
     <row r="110" ht="18" spans="1:3">
       <c r="A110" s="2">
@@ -2232,9 +2004,7 @@
       <c r="B110" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C110" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="C110" s="4"/>
     </row>
     <row r="111" ht="18" spans="1:3">
       <c r="A111" s="2">
@@ -2243,9 +2013,7 @@
       <c r="B111" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C111" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="C111" s="4"/>
     </row>
     <row r="112" ht="18" spans="1:3">
       <c r="A112" s="2">
@@ -2254,9 +2022,7 @@
       <c r="B112" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C112" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="C112" s="4"/>
     </row>
     <row r="113" ht="18" spans="1:3">
       <c r="A113" s="2">
@@ -2265,9 +2031,7 @@
       <c r="B113" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C113" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="C113" s="4"/>
     </row>
     <row r="114" ht="18" spans="1:3">
       <c r="A114" s="2">
@@ -2276,9 +2040,7 @@
       <c r="B114" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C114" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="C114" s="4"/>
     </row>
     <row r="115" ht="18" spans="1:3">
       <c r="A115" s="2">
@@ -2287,9 +2049,7 @@
       <c r="B115" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C115" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="C115" s="4"/>
     </row>
     <row r="116" ht="18" spans="1:3">
       <c r="A116" s="2">
@@ -2298,9 +2058,7 @@
       <c r="B116" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C116" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="C116" s="4"/>
     </row>
     <row r="117" ht="18" spans="1:3">
       <c r="A117" s="2">
@@ -2309,9 +2067,7 @@
       <c r="B117" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C117" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="C117" s="4"/>
     </row>
     <row r="118" ht="18" spans="1:3">
       <c r="A118" s="2">
@@ -2320,9 +2076,7 @@
       <c r="B118" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C118" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="C118" s="4"/>
     </row>
     <row r="119" ht="18" spans="1:3">
       <c r="A119" s="2">
@@ -2331,9 +2085,7 @@
       <c r="B119" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C119" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="C119" s="4"/>
     </row>
     <row r="120" ht="18" spans="1:3">
       <c r="A120" s="2">
@@ -2342,9 +2094,7 @@
       <c r="B120" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C120" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="C120" s="4"/>
     </row>
     <row r="121" ht="18" spans="1:3">
       <c r="A121" s="2">
@@ -2353,9 +2103,7 @@
       <c r="B121" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C121" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="C121" s="4"/>
     </row>
     <row r="122" ht="18" spans="1:3">
       <c r="A122" s="2">
@@ -2364,9 +2112,7 @@
       <c r="B122" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C122" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="C122" s="4"/>
     </row>
     <row r="123" ht="18" spans="1:3">
       <c r="A123" s="2">
@@ -2375,9 +2121,7 @@
       <c r="B123" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C123" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="C123" s="4"/>
     </row>
     <row r="124" ht="18" spans="1:3">
       <c r="A124" s="2">
@@ -2386,9 +2130,7 @@
       <c r="B124" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C124" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="C124" s="4"/>
     </row>
     <row r="125" ht="18" spans="1:3">
       <c r="A125" s="2">
@@ -2397,9 +2139,7 @@
       <c r="B125" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C125" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="C125" s="4"/>
     </row>
     <row r="126" ht="18" spans="1:3">
       <c r="A126" s="2">
@@ -2408,9 +2148,7 @@
       <c r="B126" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C126" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="C126" s="4"/>
     </row>
     <row r="127" ht="18" spans="1:3">
       <c r="A127" s="2">
@@ -2419,9 +2157,7 @@
       <c r="B127" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C127" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="C127" s="4"/>
     </row>
     <row r="128" ht="18" spans="1:3">
       <c r="A128" s="2">
@@ -2430,9 +2166,7 @@
       <c r="B128" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C128" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="C128" s="4"/>
     </row>
     <row r="129" ht="18" spans="1:3">
       <c r="A129" s="2">
@@ -2441,9 +2175,7 @@
       <c r="B129" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C129" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="C129" s="4"/>
     </row>
     <row r="130" ht="18" spans="1:3">
       <c r="A130" s="2">
@@ -2452,9 +2184,7 @@
       <c r="B130" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C130" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="C130" s="4"/>
     </row>
     <row r="131" ht="18" spans="1:3">
       <c r="A131" s="2">
@@ -2463,9 +2193,7 @@
       <c r="B131" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C131" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="C131" s="4"/>
     </row>
     <row r="132" ht="18" spans="1:3">
       <c r="A132" s="2">
@@ -2474,9 +2202,7 @@
       <c r="B132" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C132" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="C132" s="4"/>
     </row>
     <row r="133" ht="18" spans="1:3">
       <c r="A133" s="2">
@@ -2485,9 +2211,7 @@
       <c r="B133" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C133" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="C133" s="4"/>
     </row>
     <row r="134" ht="18" spans="1:2">
       <c r="A134" s="2">
